--- a/exps.xlsx
+++ b/exps.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkont\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9726785-EC8F-41D3-A137-85AC4A8CD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01289E-80A8-463F-8325-FF2AB721A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old-models" sheetId="1" r:id="rId1"/>
     <sheet name="complete-graph-clusters" sheetId="2" r:id="rId2"/>
     <sheet name="complete-graph-clusters-sim" sheetId="3" r:id="rId3"/>
     <sheet name="complete-graph-clusters-avg" sheetId="4" r:id="rId4"/>
-    <sheet name="cw-graph-clusters" sheetId="5" r:id="rId5"/>
-    <sheet name="cw-graph-clusters-kmeans" sheetId="6" r:id="rId6"/>
+    <sheet name="cw-graph-clusters" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>SB</t>
   </si>
@@ -526,18 +525,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -568,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -636,26 +630,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -667,9 +646,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -47261,5171 +47237,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="B2">
-        <v>0.27</v>
-      </c>
-      <c r="C2">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="H2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I2">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="K2">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="M2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="N2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="O2">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="P2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="Q2">
-        <v>0.24193000000000009</v>
-      </c>
-      <c r="R2">
-        <v>83.536095462216835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="B3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="H3">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I3">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="J3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.109</v>
-      </c>
-      <c r="L3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="M3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="N3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="Q3">
-        <v>0.21851000000000001</v>
-      </c>
-      <c r="R3">
-        <v>83.536095462216835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.17</v>
-      </c>
-      <c r="B4">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.16</v>
-      </c>
-      <c r="J4">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="K4">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="M4">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.188</v>
-      </c>
-      <c r="P4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>0.23621</v>
-      </c>
-      <c r="R4">
-        <v>65.151536761035445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.115</v>
-      </c>
-      <c r="C5">
-        <v>0.121</v>
-      </c>
-      <c r="D5">
-        <v>0.104</v>
-      </c>
-      <c r="E5">
-        <v>0.108</v>
-      </c>
-      <c r="F5">
-        <v>0.105</v>
-      </c>
-      <c r="G5">
-        <v>0.129</v>
-      </c>
-      <c r="H5">
-        <v>0.105</v>
-      </c>
-      <c r="I5">
-        <v>0.115</v>
-      </c>
-      <c r="J5">
-        <v>0.105</v>
-      </c>
-      <c r="K5">
-        <v>0.115</v>
-      </c>
-      <c r="L5">
-        <v>0.115</v>
-      </c>
-      <c r="M5">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.113</v>
-      </c>
-      <c r="O5">
-        <v>0.11</v>
-      </c>
-      <c r="P5">
-        <v>0.104</v>
-      </c>
-      <c r="Q5">
-        <v>0.21754000000000001</v>
-      </c>
-      <c r="R5">
-        <v>65.151536761035445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B6">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E6">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I6">
-        <v>0.312</v>
-      </c>
-      <c r="J6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K6">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M6">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="O6">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="Q6">
-        <v>0.23754</v>
-      </c>
-      <c r="R6">
-        <v>72.334022677030589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="B7">
-        <v>0.156</v>
-      </c>
-      <c r="C7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.157</v>
-      </c>
-      <c r="F7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.155</v>
-      </c>
-      <c r="H7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="K7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>0.21829999999999999</v>
-      </c>
-      <c r="R7">
-        <v>72.334022677030589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.105</v>
-      </c>
-      <c r="B8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.108</v>
-      </c>
-      <c r="D8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.114</v>
-      </c>
-      <c r="F8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.11</v>
-      </c>
-      <c r="H8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.113</v>
-      </c>
-      <c r="J8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.112</v>
-      </c>
-      <c r="L8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M8">
-        <v>0.108</v>
-      </c>
-      <c r="N8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="O8">
-        <v>0.106</v>
-      </c>
-      <c r="P8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q8">
-        <v>0.23624999999999999</v>
-      </c>
-      <c r="R8">
-        <v>70.1994342627588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="B9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="C9">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G9">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.04</v>
-      </c>
-      <c r="L9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M9">
-        <v>4.7E-2</v>
-      </c>
-      <c r="N9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="O9">
-        <v>0.05</v>
-      </c>
-      <c r="P9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="Q9">
-        <v>0.21848000000000001</v>
-      </c>
-      <c r="R9">
-        <v>70.1994342627588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="B10">
-        <v>0.153</v>
-      </c>
-      <c r="C10">
-        <v>0.114</v>
-      </c>
-      <c r="D10">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.156</v>
-      </c>
-      <c r="K10">
-        <v>0.16</v>
-      </c>
-      <c r="L10">
-        <v>0.158</v>
-      </c>
-      <c r="M10">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.115</v>
-      </c>
-      <c r="P10">
-        <v>0.152</v>
-      </c>
-      <c r="Q10">
-        <v>0.23658000000000001</v>
-      </c>
-      <c r="R10">
-        <v>74.665430602106071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.49</v>
-      </c>
-      <c r="B11">
-        <v>0.375</v>
-      </c>
-      <c r="C11">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.433</v>
-      </c>
-      <c r="J11">
-        <v>0.38</v>
-      </c>
-      <c r="K11">
-        <v>0.498</v>
-      </c>
-      <c r="L11">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="N11">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.378</v>
-      </c>
-      <c r="Q11">
-        <v>0.21895999999999999</v>
-      </c>
-      <c r="R11">
-        <v>74.665430602106071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="B12">
-        <v>0.435</v>
-      </c>
-      <c r="C12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.44</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="G12">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H12">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="I12">
-        <v>0.46</v>
-      </c>
-      <c r="J12">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="K12">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="L12">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="M12">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.434</v>
-      </c>
-      <c r="P12">
-        <v>0.435</v>
-      </c>
-      <c r="Q12">
-        <v>0.23904</v>
-      </c>
-      <c r="R12">
-        <v>77.026789322303841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="B13">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C13">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E13">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="G13">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="K13">
-        <v>0.26</v>
-      </c>
-      <c r="L13">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0.223</v>
-      </c>
-      <c r="N13">
-        <v>0.252</v>
-      </c>
-      <c r="O13">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="P13">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>0.2185</v>
-      </c>
-      <c r="R13">
-        <v>77.026789322303841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="B14">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.188</v>
-      </c>
-      <c r="D14">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.125</v>
-      </c>
-      <c r="G14">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.128</v>
-      </c>
-      <c r="I14">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.127</v>
-      </c>
-      <c r="K14">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="L14">
-        <v>0.128</v>
-      </c>
-      <c r="M14">
-        <v>0.188</v>
-      </c>
-      <c r="N14">
-        <v>0.127</v>
-      </c>
-      <c r="O14">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="P14">
-        <v>0.13</v>
-      </c>
-      <c r="Q14">
-        <v>0.24034</v>
-      </c>
-      <c r="R14">
-        <v>85.56799543606931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="B15">
-        <v>0.183</v>
-      </c>
-      <c r="C15">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="E15">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="J15">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K15">
-        <v>0.128</v>
-      </c>
-      <c r="L15">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0.121</v>
-      </c>
-      <c r="N15">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.108</v>
-      </c>
-      <c r="P15">
-        <v>0.18</v>
-      </c>
-      <c r="Q15">
-        <v>0.2177</v>
-      </c>
-      <c r="R15">
-        <v>85.56799543606931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="B16">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.252</v>
-      </c>
-      <c r="D16">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.252</v>
-      </c>
-      <c r="F16">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="G16">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="M16">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.224</v>
-      </c>
-      <c r="O16">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="P16">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>0.23862</v>
-      </c>
-      <c r="R16">
-        <v>87.268535025790968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B17">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="F17">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="H17">
-        <v>0.3</v>
-      </c>
-      <c r="I17">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="J17">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="L17">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="M17">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="N17">
-        <v>0.3</v>
-      </c>
-      <c r="O17">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="P17">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>0.21753</v>
-      </c>
-      <c r="R17">
-        <v>87.268535025790968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.121</v>
-      </c>
-      <c r="B18">
-        <v>0.156</v>
-      </c>
-      <c r="C18">
-        <v>0.123</v>
-      </c>
-      <c r="D18">
-        <v>0.156</v>
-      </c>
-      <c r="E18">
-        <v>0.11</v>
-      </c>
-      <c r="F18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="G18">
-        <v>0.12</v>
-      </c>
-      <c r="H18">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.125</v>
-      </c>
-      <c r="J18">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="K18">
-        <v>0.12</v>
-      </c>
-      <c r="L18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="M18">
-        <v>0.124</v>
-      </c>
-      <c r="N18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.123</v>
-      </c>
-      <c r="P18">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="B19">
-        <v>0.191</v>
-      </c>
-      <c r="C19">
-        <v>0.21</v>
-      </c>
-      <c r="D19">
-        <v>0.189</v>
-      </c>
-      <c r="E19">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.189</v>
-      </c>
-      <c r="G19">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.188</v>
-      </c>
-      <c r="I19">
-        <v>0.221</v>
-      </c>
-      <c r="J19">
-        <v>0.19</v>
-      </c>
-      <c r="K19">
-        <v>0.223</v>
-      </c>
-      <c r="L19">
-        <v>0.19</v>
-      </c>
-      <c r="M19">
-        <v>0.215</v>
-      </c>
-      <c r="N19">
-        <v>0.188</v>
-      </c>
-      <c r="O19">
-        <v>0.245</v>
-      </c>
-      <c r="P19">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="B20">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="C20">
-        <v>0.153</v>
-      </c>
-      <c r="D20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.109</v>
-      </c>
-      <c r="F20">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.155</v>
-      </c>
-      <c r="H20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="J20">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="K20">
-        <v>0.126</v>
-      </c>
-      <c r="L20">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="M20">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="P20">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="B21">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="C21">
-        <v>0.307</v>
-      </c>
-      <c r="D21">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E21">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="F21">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G21">
-        <v>0.6</v>
-      </c>
-      <c r="H21">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.42</v>
-      </c>
-      <c r="K21">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="L21">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="M21">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="N21">
-        <v>0.436</v>
-      </c>
-      <c r="O21">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="P21">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="B22">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.152</v>
-      </c>
-      <c r="D22">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.154</v>
-      </c>
-      <c r="F22">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H22">
-        <v>0.161</v>
-      </c>
-      <c r="I22">
-        <v>0.153</v>
-      </c>
-      <c r="J22">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="K22">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="L22">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="M22">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="N22">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.15</v>
-      </c>
-      <c r="P22">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="B23">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.252</v>
-      </c>
-      <c r="D23">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.248</v>
-      </c>
-      <c r="F23">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="G23">
-        <v>0.247</v>
-      </c>
-      <c r="H23">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.248</v>
-      </c>
-      <c r="J23">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="K23">
-        <v>0.248</v>
-      </c>
-      <c r="L23">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="M23">
-        <v>0.254</v>
-      </c>
-      <c r="N23">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.25</v>
-      </c>
-      <c r="P23">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="B24">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D24">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E24">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F24">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G24">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H24">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I24">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="J24">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K24">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="L24">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M24">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="N24">
-        <v>0.06</v>
-      </c>
-      <c r="O24">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="P24">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B25">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D25">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F25">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G25">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="I25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J25">
-        <v>0.06</v>
-      </c>
-      <c r="K25">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L25">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="M25">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N25">
-        <v>0.06</v>
-      </c>
-      <c r="O25">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="P25">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0.154</v>
-      </c>
-      <c r="B26">
-        <v>0.182</v>
-      </c>
-      <c r="C26">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D26">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G26">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H26">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="J26">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="K26">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="L26">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="M26">
-        <v>0.153</v>
-      </c>
-      <c r="N26">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="P26">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="B27">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D27">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="E27">
-        <v>0.39</v>
-      </c>
-      <c r="F27">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G27">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H27">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="I27">
-        <v>0.39</v>
-      </c>
-      <c r="J27">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K27">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="L27">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="M27">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="N27">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="P27">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="B28">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G28">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="H28">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J28">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K28">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="L28">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="N28">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="O28">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="P28">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.185</v>
-      </c>
-      <c r="B29">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="D29">
-        <v>0.18</v>
-      </c>
-      <c r="E29">
-        <v>0.191</v>
-      </c>
-      <c r="F29">
-        <v>0.183</v>
-      </c>
-      <c r="G29">
-        <v>0.2</v>
-      </c>
-      <c r="H29">
-        <v>0.183</v>
-      </c>
-      <c r="I29">
-        <v>0.187</v>
-      </c>
-      <c r="J29">
-        <v>0.18</v>
-      </c>
-      <c r="K29">
-        <v>0.187</v>
-      </c>
-      <c r="L29">
-        <v>0.18</v>
-      </c>
-      <c r="M29">
-        <v>0.189</v>
-      </c>
-      <c r="N29">
-        <v>0.182</v>
-      </c>
-      <c r="O29">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P29">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0.123</v>
-      </c>
-      <c r="B30">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C30">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D30">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E30">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F30">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H30">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="J30">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K30">
-        <v>0.123</v>
-      </c>
-      <c r="L30">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M30">
-        <v>0.122</v>
-      </c>
-      <c r="N30">
-        <v>9.4E-2</v>
-      </c>
-      <c r="O30">
-        <v>0.108</v>
-      </c>
-      <c r="P30">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="B31">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="C31">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="D31">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E31">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="G31">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H31">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="J31">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K31">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="L31">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="M31">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="N31">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.26</v>
-      </c>
-      <c r="P31">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="B32">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D32">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E32">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="F32">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G32">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="H32">
-        <v>0.25</v>
-      </c>
-      <c r="I32">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="J32">
-        <v>0.25</v>
-      </c>
-      <c r="K32">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="L32">
-        <v>0.249</v>
-      </c>
-      <c r="M32">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N32">
-        <v>0.247</v>
-      </c>
-      <c r="O32">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="P32">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="B33">
-        <v>0.12</v>
-      </c>
-      <c r="C33">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D33">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="E33">
-        <v>0.125</v>
-      </c>
-      <c r="F33">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G33">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="H33">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="I33">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="J33">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="K33">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="L33">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="M33">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="N33">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="P33">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="B34">
-        <v>0.185</v>
-      </c>
-      <c r="C34">
-        <v>0.16</v>
-      </c>
-      <c r="D34">
-        <v>0.184</v>
-      </c>
-      <c r="E34">
-        <v>0.109</v>
-      </c>
-      <c r="F34">
-        <v>0.185</v>
-      </c>
-      <c r="G34">
-        <v>0.115</v>
-      </c>
-      <c r="H34">
-        <v>0.185</v>
-      </c>
-      <c r="I34">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J34">
-        <v>0.19</v>
-      </c>
-      <c r="K34">
-        <v>0.13</v>
-      </c>
-      <c r="L34">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="M34">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.187</v>
-      </c>
-      <c r="O34">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="P34">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="B35">
-        <v>0.245</v>
-      </c>
-      <c r="C35">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D35">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="E35">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F35">
-        <v>0.248</v>
-      </c>
-      <c r="G35">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H35">
-        <v>0.249</v>
-      </c>
-      <c r="I35">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="J35">
-        <v>0.249</v>
-      </c>
-      <c r="K35">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="L35">
-        <v>0.252</v>
-      </c>
-      <c r="M35">
-        <v>0.22</v>
-      </c>
-      <c r="N35">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.22</v>
-      </c>
-      <c r="P35">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="B36">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C36">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D36">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E36">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F36">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G36">
-        <v>0.122</v>
-      </c>
-      <c r="H36">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I36">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="J36">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="K36">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="L36">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M36">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="N36">
-        <v>7.8E-2</v>
-      </c>
-      <c r="O36">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="P36">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0.46</v>
-      </c>
-      <c r="B37">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C37">
-        <v>0.316</v>
-      </c>
-      <c r="D37">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E37">
-        <v>0.46</v>
-      </c>
-      <c r="F37">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="G37">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="H37">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.46</v>
-      </c>
-      <c r="J37">
-        <v>0.188</v>
-      </c>
-      <c r="K37">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L37">
-        <v>0.17</v>
-      </c>
-      <c r="M37">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="N37">
-        <v>0.17</v>
-      </c>
-      <c r="O37">
-        <v>0.437</v>
-      </c>
-      <c r="P37">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="B38">
-        <v>0.43</v>
-      </c>
-      <c r="C38">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D38">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="E38">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F38">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="G38">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="H38">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="I38">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="J38">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="K38">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="L38">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="M38">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="N38">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="O38">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="P38">
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="B39">
-        <v>0.06</v>
-      </c>
-      <c r="C39">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D39">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F39">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H39">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="I39">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="J39">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="K39">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="L39">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="N39">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="O39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="P39">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="B40">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C40">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="D40">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E40">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F40">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G40">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="H40">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I40">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="J40">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="K40">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="L40">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="M40">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="N40">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="O40">
-        <v>0.312</v>
-      </c>
-      <c r="P40">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="B41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C41">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="D41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E41">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="G41">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="H41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I41">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K41">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="L41">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="M41">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="N41">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="O41">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="P41">
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="B42">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="C42">
-        <v>0.252</v>
-      </c>
-      <c r="D42">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="E42">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G42">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="H42">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="I42">
-        <v>0.125</v>
-      </c>
-      <c r="J42">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K42">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="L42">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="M42">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="N42">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="O42">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="P42">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="B43">
-        <v>0.127</v>
-      </c>
-      <c r="C43">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="D43">
-        <v>0.126</v>
-      </c>
-      <c r="E43">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="F43">
-        <v>0.125</v>
-      </c>
-      <c r="G43">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H43">
-        <v>0.124</v>
-      </c>
-      <c r="I43">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="J43">
-        <v>0.128</v>
-      </c>
-      <c r="K43">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L43">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M43">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="N43">
-        <v>0.123</v>
-      </c>
-      <c r="O43">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="P43">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>0.221</v>
-      </c>
-      <c r="B44">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C44">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D44">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E44">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F44">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G44">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="H44">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="I44">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="J44">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="K44">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="L44">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="M44">
-        <v>0.21</v>
-      </c>
-      <c r="N44">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="P44">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="B45">
-        <v>0.378</v>
-      </c>
-      <c r="C45">
-        <v>0.33</v>
-      </c>
-      <c r="D45">
-        <v>0.375</v>
-      </c>
-      <c r="E45">
-        <v>0.32</v>
-      </c>
-      <c r="F45">
-        <v>0.377</v>
-      </c>
-      <c r="G45">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="H45">
-        <v>0.378</v>
-      </c>
-      <c r="I45">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="J45">
-        <v>0.377</v>
-      </c>
-      <c r="K45">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="L45">
-        <v>0.376</v>
-      </c>
-      <c r="M45">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="N45">
-        <v>0.377</v>
-      </c>
-      <c r="O45">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="P45">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="B46">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="C46">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D46">
-        <v>0.193</v>
-      </c>
-      <c r="E46">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F46">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G46">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="H46">
-        <v>0.184</v>
-      </c>
-      <c r="I46">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="J46">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="K46">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L46">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="M46">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="N46">
-        <v>0.189</v>
-      </c>
-      <c r="O46">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="P46">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="B47">
-        <v>0.22</v>
-      </c>
-      <c r="C47">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D47">
-        <v>0.222</v>
-      </c>
-      <c r="E47">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="F47">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G47">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H47">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I47">
-        <v>0.25</v>
-      </c>
-      <c r="J47">
-        <v>0.223</v>
-      </c>
-      <c r="K47">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="L47">
-        <v>0.22</v>
-      </c>
-      <c r="M47">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="N47">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="O47">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="P47">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="B48">
-        <v>0.106</v>
-      </c>
-      <c r="C48">
-        <v>0.09</v>
-      </c>
-      <c r="D48">
-        <v>0.107</v>
-      </c>
-      <c r="E48">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F48">
-        <v>0.109</v>
-      </c>
-      <c r="G48">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H48">
-        <v>0.106</v>
-      </c>
-      <c r="I48">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J48">
-        <v>0.112</v>
-      </c>
-      <c r="K48">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L48">
-        <v>0.105</v>
-      </c>
-      <c r="M48">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="N48">
-        <v>0.105</v>
-      </c>
-      <c r="O48">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="P48">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="B49">
-        <v>0.187</v>
-      </c>
-      <c r="C49">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E49">
-        <v>0.08</v>
-      </c>
-      <c r="F49">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G49">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H49">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="I49">
-        <v>0.08</v>
-      </c>
-      <c r="J49">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K49">
-        <v>0.109</v>
-      </c>
-      <c r="L49">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="M49">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="N49">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O49">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="P49">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="B50">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="C50">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D50">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E50">
-        <v>0.441</v>
-      </c>
-      <c r="F50">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="G50">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H50">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I50">
-        <v>0.441</v>
-      </c>
-      <c r="J50">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="K50">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="L50">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="M50">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="N50">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="O50">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="P50">
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="B51">
-        <v>0.192</v>
-      </c>
-      <c r="C51">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D51">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E51">
-        <v>0.249</v>
-      </c>
-      <c r="F51">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G51">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="H51">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="I51">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J51">
-        <v>0.19</v>
-      </c>
-      <c r="K51">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L51">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="M51">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="N51">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="O51">
-        <v>0.247</v>
-      </c>
-      <c r="P51">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="B52">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C52">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D52">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E52">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F52">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G52">
-        <v>0.307</v>
-      </c>
-      <c r="H52">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="I52">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="J52">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="K52">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="L52">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="M52">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="N52">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="O52">
-        <v>0.307</v>
-      </c>
-      <c r="P52">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>0.503</v>
-      </c>
-      <c r="B53">
-        <v>0.502</v>
-      </c>
-      <c r="C53">
-        <v>0.502</v>
-      </c>
-      <c r="D53">
-        <v>0.502</v>
-      </c>
-      <c r="E53">
-        <v>0.503</v>
-      </c>
-      <c r="F53">
-        <v>0.502</v>
-      </c>
-      <c r="G53">
-        <v>0.501</v>
-      </c>
-      <c r="H53">
-        <v>0.502</v>
-      </c>
-      <c r="I53">
-        <v>0.503</v>
-      </c>
-      <c r="J53">
-        <v>0.502</v>
-      </c>
-      <c r="K53">
-        <v>0.502</v>
-      </c>
-      <c r="L53">
-        <v>0.502</v>
-      </c>
-      <c r="M53">
-        <v>0.502</v>
-      </c>
-      <c r="N53">
-        <v>0.502</v>
-      </c>
-      <c r="O53">
-        <v>0.502</v>
-      </c>
-      <c r="P53">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="B54">
-        <v>0.245</v>
-      </c>
-      <c r="C54">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D54">
-        <v>0.248</v>
-      </c>
-      <c r="E54">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F54">
-        <v>0.25</v>
-      </c>
-      <c r="G54">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H54">
-        <v>0.249</v>
-      </c>
-      <c r="I54">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="J54">
-        <v>0.25</v>
-      </c>
-      <c r="K54">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="L54">
-        <v>0.247</v>
-      </c>
-      <c r="M54">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="N54">
-        <v>0.248</v>
-      </c>
-      <c r="O54">
-        <v>0.189</v>
-      </c>
-      <c r="P54">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="B55">
-        <v>0.42</v>
-      </c>
-      <c r="C55">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D55">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E55">
-        <v>0.48</v>
-      </c>
-      <c r="F55">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="G55">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H55">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="I55">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="J55">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="K55">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L55">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="M55">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="N55">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="O55">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="P55">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>3.9E-2</v>
-      </c>
-      <c r="B56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C56">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D56">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E56">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G56">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I56">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="K56">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="M56">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N56">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O56">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P56">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>0.1</v>
-      </c>
-      <c r="B57">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C57">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D57">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E57">
-        <v>0.115</v>
-      </c>
-      <c r="F57">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G57">
-        <v>0.108</v>
-      </c>
-      <c r="H57">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I57">
-        <v>0.113</v>
-      </c>
-      <c r="J57">
-        <v>0.1</v>
-      </c>
-      <c r="K57">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="L57">
-        <v>0.1</v>
-      </c>
-      <c r="M57">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="N57">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="O57">
-        <v>0.112</v>
-      </c>
-      <c r="P57">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="B58">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="C58">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D58">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="E58">
-        <v>0.42</v>
-      </c>
-      <c r="F58">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="G58">
-        <v>0.39</v>
-      </c>
-      <c r="H58">
-        <v>0.443</v>
-      </c>
-      <c r="I58">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="J58">
-        <v>0.439</v>
-      </c>
-      <c r="K58">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="L58">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="M58">
-        <v>0.37</v>
-      </c>
-      <c r="N58">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="O58">
-        <v>0.43</v>
-      </c>
-      <c r="P58">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="B59">
-        <v>0.316</v>
-      </c>
-      <c r="C59">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D59">
-        <v>0.317</v>
-      </c>
-      <c r="E59">
-        <v>0.311</v>
-      </c>
-      <c r="F59">
-        <v>0.313</v>
-      </c>
-      <c r="G59">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="H59">
-        <v>0.315</v>
-      </c>
-      <c r="I59">
-        <v>0.31</v>
-      </c>
-      <c r="J59">
-        <v>0.313</v>
-      </c>
-      <c r="K59">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L59">
-        <v>0.315</v>
-      </c>
-      <c r="M59">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N59">
-        <v>0.315</v>
-      </c>
-      <c r="O59">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="P59">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="B60">
-        <v>0.154</v>
-      </c>
-      <c r="C60">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D60">
-        <v>0.153</v>
-      </c>
-      <c r="E60">
-        <v>0.153</v>
-      </c>
-      <c r="F60">
-        <v>0.151</v>
-      </c>
-      <c r="G60">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H60">
-        <v>0.151</v>
-      </c>
-      <c r="I60">
-        <v>0.152</v>
-      </c>
-      <c r="J60">
-        <v>0.154</v>
-      </c>
-      <c r="K60">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="L60">
-        <v>0.154</v>
-      </c>
-      <c r="M60">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N60">
-        <v>0.152</v>
-      </c>
-      <c r="O60">
-        <v>0.154</v>
-      </c>
-      <c r="P60">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="B61">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C61">
-        <v>0.107</v>
-      </c>
-      <c r="D61">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E61">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F61">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G61">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H61">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I61">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J61">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="K61">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="L61">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M61">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="N61">
-        <v>0.08</v>
-      </c>
-      <c r="O61">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P61">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>0.377</v>
-      </c>
-      <c r="B62">
-        <v>0.309</v>
-      </c>
-      <c r="C62">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D62">
-        <v>0.309</v>
-      </c>
-      <c r="E62">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="F62">
-        <v>0.309</v>
-      </c>
-      <c r="G62">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="H62">
-        <v>0.312</v>
-      </c>
-      <c r="I62">
-        <v>0.378</v>
-      </c>
-      <c r="J62">
-        <v>0.309</v>
-      </c>
-      <c r="K62">
-        <v>0.41</v>
-      </c>
-      <c r="L62">
-        <v>0.317</v>
-      </c>
-      <c r="M62">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="N62">
-        <v>0.32</v>
-      </c>
-      <c r="O62">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="P62">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="B63">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="C63">
-        <v>0.252</v>
-      </c>
-      <c r="D63">
-        <v>0.27</v>
-      </c>
-      <c r="E63">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="F63">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="G63">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H63">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="I63">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="J63">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="K63">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="L63">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="M63">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="N63">
-        <v>0.27</v>
-      </c>
-      <c r="O63">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="P63">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="B64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C64">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D64">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E64">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F64">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I64">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="K64">
-        <v>6.2E-2</v>
-      </c>
-      <c r="L64">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="M64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N64">
-        <v>6.3E-2</v>
-      </c>
-      <c r="O64">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P64">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="B65">
-        <v>0.12</v>
-      </c>
-      <c r="C65">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D65">
-        <v>0.121</v>
-      </c>
-      <c r="E65">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F65">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G65">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="H65">
-        <v>0.121</v>
-      </c>
-      <c r="I65">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="J65">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="K65">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="L65">
-        <v>0.12</v>
-      </c>
-      <c r="M65">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="N65">
-        <v>0.12</v>
-      </c>
-      <c r="O65">
-        <v>9.4E-2</v>
-      </c>
-      <c r="P65">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="B66">
-        <v>0.218</v>
-      </c>
-      <c r="C66">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D66">
-        <v>0.218</v>
-      </c>
-      <c r="E66">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="F66">
-        <v>0.221</v>
-      </c>
-      <c r="G66">
-        <v>0.223</v>
-      </c>
-      <c r="H66">
-        <v>0.218</v>
-      </c>
-      <c r="I66">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="J66">
-        <v>0.222</v>
-      </c>
-      <c r="K66">
-        <v>0.251</v>
-      </c>
-      <c r="L66">
-        <v>0.22</v>
-      </c>
-      <c r="M66">
-        <v>0.23</v>
-      </c>
-      <c r="N66">
-        <v>0.223</v>
-      </c>
-      <c r="O66">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="P66">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="B67">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="C67">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D67">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="E67">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F67">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G67">
-        <v>0.15</v>
-      </c>
-      <c r="H67">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="I67">
-        <v>0.16</v>
-      </c>
-      <c r="J67">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="K67">
-        <v>0.158</v>
-      </c>
-      <c r="L67">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M67">
-        <v>0.157</v>
-      </c>
-      <c r="N67">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="O67">
-        <v>0.154</v>
-      </c>
-      <c r="P67">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>0.17</v>
-      </c>
-      <c r="B68">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="C68">
-        <v>0.219</v>
-      </c>
-      <c r="D68">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="E68">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F68">
-        <v>0.246</v>
-      </c>
-      <c r="G68">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="H68">
-        <v>0.246</v>
-      </c>
-      <c r="I68">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="J68">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K68">
-        <v>0.185</v>
-      </c>
-      <c r="L68">
-        <v>0.245</v>
-      </c>
-      <c r="M68">
-        <v>0.186</v>
-      </c>
-      <c r="N68">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="O68">
-        <v>0.185</v>
-      </c>
-      <c r="P68">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="B69">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C69">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E69">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G69">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I69">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="J69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K69">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L69">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M69">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O69">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="P69">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>0.307</v>
-      </c>
-      <c r="B70">
-        <v>0.13</v>
-      </c>
-      <c r="C70">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="D70">
-        <v>0.13</v>
-      </c>
-      <c r="E70">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F70">
-        <v>0.129</v>
-      </c>
-      <c r="G70">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H70">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="I70">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="J70">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="K70">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="L70">
-        <v>0.13</v>
-      </c>
-      <c r="M70">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N70">
-        <v>0.13</v>
-      </c>
-      <c r="O70">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P70">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="B71">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C71">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="D71">
-        <v>0.309</v>
-      </c>
-      <c r="E71">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="F71">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="G71">
-        <v>0.442</v>
-      </c>
-      <c r="H71">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="I71">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="J71">
-        <v>0.307</v>
-      </c>
-      <c r="K71">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="L71">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="M71">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="N71">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="O71">
-        <v>0.435</v>
-      </c>
-      <c r="P71">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>0.47</v>
-      </c>
-      <c r="B72">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="C72">
-        <v>0.47</v>
-      </c>
-      <c r="D72">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E72">
-        <v>0.47</v>
-      </c>
-      <c r="F72">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="G72">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H72">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I72">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J72">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="K72">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="L72">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M72">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="N72">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="O72">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="P72">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="B73">
-        <v>0.38</v>
-      </c>
-      <c r="C73">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D73">
-        <v>0.38</v>
-      </c>
-      <c r="E73">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="F73">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="G73">
-        <v>0.42</v>
-      </c>
-      <c r="H73">
-        <v>0.379</v>
-      </c>
-      <c r="I73">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="J73">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="K73">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="L73">
-        <v>0.378</v>
-      </c>
-      <c r="M73">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="N73">
-        <v>0.378</v>
-      </c>
-      <c r="O73">
-        <v>0.438</v>
-      </c>
-      <c r="P73">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="B74">
-        <v>0.317</v>
-      </c>
-      <c r="C74">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="D74">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E74">
-        <v>0.504</v>
-      </c>
-      <c r="F74">
-        <v>0.309</v>
-      </c>
-      <c r="G74">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="H74">
-        <v>0.311</v>
-      </c>
-      <c r="I74">
-        <v>0.497</v>
-      </c>
-      <c r="J74">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="K74">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="L74">
-        <v>0.309</v>
-      </c>
-      <c r="M74">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="N74">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="O74">
-        <v>0.495</v>
-      </c>
-      <c r="P74">
-        <v>0.308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="B75">
-        <v>0.221</v>
-      </c>
-      <c r="C75">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D75">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E75">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F75">
-        <v>0.22</v>
-      </c>
-      <c r="G75">
-        <v>0.189</v>
-      </c>
-      <c r="H75">
-        <v>0.22</v>
-      </c>
-      <c r="I75">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="J75">
-        <v>0.221</v>
-      </c>
-      <c r="K75">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="L75">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="M75">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="N75">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="O75">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="P75">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="B76">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="C76">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="D76">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="E76">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F76">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G76">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="H76">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="I76">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J76">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="K76">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="L76">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="M76">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="N76">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="O76">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="P76">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="B77">
-        <v>0.217</v>
-      </c>
-      <c r="C77">
-        <v>0.217</v>
-      </c>
-      <c r="D77">
-        <v>0.216</v>
-      </c>
-      <c r="E77">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="F77">
-        <v>0.217</v>
-      </c>
-      <c r="G77">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="H77">
-        <v>0.217</v>
-      </c>
-      <c r="I77">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="J77">
-        <v>0.218</v>
-      </c>
-      <c r="K77">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="L77">
-        <v>0.218</v>
-      </c>
-      <c r="M77">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="N77">
-        <v>0.219</v>
-      </c>
-      <c r="O77">
-        <v>0.21</v>
-      </c>
-      <c r="P77">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="B78">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C78">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D78">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E78">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F78">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G78">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H78">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="I78">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J78">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="K78">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L78">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="M78">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N78">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="O78">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="P78">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.16</v>
-      </c>
-      <c r="B79">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C79">
-        <v>0.153</v>
-      </c>
-      <c r="D79">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E79">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F79">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G79">
-        <v>0.152</v>
-      </c>
-      <c r="H79">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="I79">
-        <v>0.161</v>
-      </c>
-      <c r="J79">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K79">
-        <v>0.153</v>
-      </c>
-      <c r="L79">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M79">
-        <v>0.153</v>
-      </c>
-      <c r="N79">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="O79">
-        <v>0.156</v>
-      </c>
-      <c r="P79">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>0.126</v>
-      </c>
-      <c r="B80">
-        <v>0.155</v>
-      </c>
-      <c r="C80">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D80">
-        <v>0.155</v>
-      </c>
-      <c r="E80">
-        <v>0.122</v>
-      </c>
-      <c r="F80">
-        <v>0.155</v>
-      </c>
-      <c r="G80">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="H80">
-        <v>0.154</v>
-      </c>
-      <c r="I80">
-        <v>0.123</v>
-      </c>
-      <c r="J80">
-        <v>0.156</v>
-      </c>
-      <c r="K80">
-        <v>0.126</v>
-      </c>
-      <c r="L80">
-        <v>0.156</v>
-      </c>
-      <c r="M80">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="N80">
-        <v>0.155</v>
-      </c>
-      <c r="O80">
-        <v>0.128</v>
-      </c>
-      <c r="P80">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="B81">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="C81">
-        <v>0.152</v>
-      </c>
-      <c r="D81">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E81">
-        <v>0.16</v>
-      </c>
-      <c r="F81">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G81">
-        <v>0.123</v>
-      </c>
-      <c r="H81">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="I81">
-        <v>0.15</v>
-      </c>
-      <c r="J81">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="K81">
-        <v>0.15</v>
-      </c>
-      <c r="L81">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="M81">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="N81">
-        <v>0.15</v>
-      </c>
-      <c r="O81">
-        <v>0.15</v>
-      </c>
-      <c r="P81">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="B82">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C82">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D82">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E82">
-        <v>0.223</v>
-      </c>
-      <c r="F82">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G82">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="H82">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="I82">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="J82">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K82">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="L82">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="M82">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="N82">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="O82">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="P82">
-        <v>0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>0.221</v>
-      </c>
-      <c r="B83">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C83">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D83">
-        <v>0.161</v>
-      </c>
-      <c r="E83">
-        <v>0.22</v>
-      </c>
-      <c r="F83">
-        <v>0.155</v>
-      </c>
-      <c r="G83">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H83">
-        <v>0.155</v>
-      </c>
-      <c r="I83">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="J83">
-        <v>0.154</v>
-      </c>
-      <c r="K83">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L83">
-        <v>0.155</v>
-      </c>
-      <c r="M83">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="N83">
-        <v>0.156</v>
-      </c>
-      <c r="O83">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="P83">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>0.188</v>
-      </c>
-      <c r="B84">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="C84">
-        <v>0.156</v>
-      </c>
-      <c r="D84">
-        <v>0.215</v>
-      </c>
-      <c r="E84">
-        <v>0.183</v>
-      </c>
-      <c r="F84">
-        <v>0.214</v>
-      </c>
-      <c r="G84">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="H84">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="I84">
-        <v>0.18</v>
-      </c>
-      <c r="J84">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K84">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="L84">
-        <v>0.214</v>
-      </c>
-      <c r="M84">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N84">
-        <v>0.214</v>
-      </c>
-      <c r="O84">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="P84">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0.32</v>
-      </c>
-      <c r="B85">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C85">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D85">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E85">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="F85">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="G85">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="H85">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I85">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="J85">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="K85">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="L85">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="M85">
-        <v>0.375</v>
-      </c>
-      <c r="N85">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="O85">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="P85">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B86">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C86">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D86">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E86">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F86">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G86">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H86">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I86">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J86">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="K86">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="L86">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M86">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="N86">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="O86">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="P86">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B87">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="C87">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D87">
-        <v>0.26</v>
-      </c>
-      <c r="E87">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F87">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G87">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="H87">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="I87">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="J87">
-        <v>0.26</v>
-      </c>
-      <c r="K87">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="L87">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="M87">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="N87">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="O87">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="P87">
-        <v>0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="B88">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C88">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D88">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E88">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F88">
-        <v>0.09</v>
-      </c>
-      <c r="G88">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="H88">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I88">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="J88">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="K88">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="L88">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M88">
-        <v>0.09</v>
-      </c>
-      <c r="N88">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="O88">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="P88">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.19</v>
-      </c>
-      <c r="B89">
-        <v>0.15</v>
-      </c>
-      <c r="C89">
-        <v>0.123</v>
-      </c>
-      <c r="D89">
-        <v>0.15</v>
-      </c>
-      <c r="E89">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="F89">
-        <v>0.161</v>
-      </c>
-      <c r="G89">
-        <v>0.154</v>
-      </c>
-      <c r="H89">
-        <v>0.16</v>
-      </c>
-      <c r="I89">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="J89">
-        <v>0.161</v>
-      </c>
-      <c r="K89">
-        <v>0.189</v>
-      </c>
-      <c r="L89">
-        <v>0.16</v>
-      </c>
-      <c r="M89">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="N89">
-        <v>0.16</v>
-      </c>
-      <c r="O89">
-        <v>0.186</v>
-      </c>
-      <c r="P89">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="B90">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C90">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D90">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="E90">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="F90">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G90">
-        <v>0.25</v>
-      </c>
-      <c r="H90">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="I90">
-        <v>0.218</v>
-      </c>
-      <c r="J90">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="K90">
-        <v>0.223</v>
-      </c>
-      <c r="L90">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="M90">
-        <v>0.245</v>
-      </c>
-      <c r="N90">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="O90">
-        <v>0.314</v>
-      </c>
-      <c r="P90">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="B91">
-        <v>0.52</v>
-      </c>
-      <c r="C91">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="D91">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E91">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F91">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="G91">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H91">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I91">
-        <v>0.32</v>
-      </c>
-      <c r="J91">
-        <v>0.505</v>
-      </c>
-      <c r="K91">
-        <v>0.3</v>
-      </c>
-      <c r="L91">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="M91">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="N91">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="O91">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="P91">
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="B92">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C92">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D92">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="E92">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="F92">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G92">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="H92">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="I92">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="J92">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="K92">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="L92">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="M92">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="N92">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="O92">
-        <v>0.314</v>
-      </c>
-      <c r="P92">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B93">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C93">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D93">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E93">
-        <v>0.3</v>
-      </c>
-      <c r="F93">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G93">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H93">
-        <v>0.307</v>
-      </c>
-      <c r="I93">
-        <v>0.3</v>
-      </c>
-      <c r="J93">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="K93">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="L93">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="M93">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="N93">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="O93">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="P93">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>0.125</v>
-      </c>
-      <c r="B94">
-        <v>0.125</v>
-      </c>
-      <c r="C94">
-        <v>0.125</v>
-      </c>
-      <c r="D94">
-        <v>0.126</v>
-      </c>
-      <c r="E94">
-        <v>0.151</v>
-      </c>
-      <c r="F94">
-        <v>0.126</v>
-      </c>
-      <c r="G94">
-        <v>0.13</v>
-      </c>
-      <c r="H94">
-        <v>0.126</v>
-      </c>
-      <c r="I94">
-        <v>0.151</v>
-      </c>
-      <c r="J94">
-        <v>0.125</v>
-      </c>
-      <c r="K94">
-        <v>0.124</v>
-      </c>
-      <c r="L94">
-        <v>0.126</v>
-      </c>
-      <c r="M94">
-        <v>0.126</v>
-      </c>
-      <c r="N94">
-        <v>0.125</v>
-      </c>
-      <c r="O94">
-        <v>0.126</v>
-      </c>
-      <c r="P94">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>0.308</v>
-      </c>
-      <c r="B95">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C95">
-        <v>0.308</v>
-      </c>
-      <c r="D95">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="E95">
-        <v>0.308</v>
-      </c>
-      <c r="F95">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G95">
-        <v>0.31</v>
-      </c>
-      <c r="H95">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="I95">
-        <v>0.308</v>
-      </c>
-      <c r="J95">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="K95">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="L95">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="M95">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N95">
-        <v>0.32</v>
-      </c>
-      <c r="O95">
-        <v>0.311</v>
-      </c>
-      <c r="P95">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="B96">
-        <v>0.154</v>
-      </c>
-      <c r="C96">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D96">
-        <v>0.158</v>
-      </c>
-      <c r="E96">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F96">
-        <v>0.158</v>
-      </c>
-      <c r="G96">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="H96">
-        <v>0.159</v>
-      </c>
-      <c r="I96">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="J96">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K96">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="L96">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="M96">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="N96">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="O96">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="P96">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="B97">
-        <v>0.222</v>
-      </c>
-      <c r="C97">
-        <v>0.32</v>
-      </c>
-      <c r="D97">
-        <v>0.219</v>
-      </c>
-      <c r="E97">
-        <v>0.218</v>
-      </c>
-      <c r="F97">
-        <v>0.217</v>
-      </c>
-      <c r="G97">
-        <v>0.249</v>
-      </c>
-      <c r="H97">
-        <v>0.216</v>
-      </c>
-      <c r="I97">
-        <v>0.251</v>
-      </c>
-      <c r="J97">
-        <v>0.217</v>
-      </c>
-      <c r="K97">
-        <v>0.251</v>
-      </c>
-      <c r="L97">
-        <v>0.217</v>
-      </c>
-      <c r="M97">
-        <v>0.251</v>
-      </c>
-      <c r="N97">
-        <v>0.216</v>
-      </c>
-      <c r="O97">
-        <v>0.249</v>
-      </c>
-      <c r="P97">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="B98">
-        <v>0.39</v>
-      </c>
-      <c r="C98">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D98">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="E98">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F98">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G98">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H98">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="I98">
-        <v>0.317</v>
-      </c>
-      <c r="J98">
-        <v>0.38</v>
-      </c>
-      <c r="K98">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L98">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="M98">
-        <v>0.38</v>
-      </c>
-      <c r="N98">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="O98">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="P98">
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="B99">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C99">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D99">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E99">
-        <v>0.121</v>
-      </c>
-      <c r="F99">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G99">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H99">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I99">
-        <v>0.15</v>
-      </c>
-      <c r="J99">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K99">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="L99">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="M99">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="N99">
-        <v>0.1</v>
-      </c>
-      <c r="O99">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="P99">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="B100">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="C100">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D100">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E100">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="F100">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="G100">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="H100">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="I100">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="J100">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="K100">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L100">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="M100">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="N100">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="O100">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P100">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="B101">
-        <v>0.313</v>
-      </c>
-      <c r="C101">
-        <v>0.37</v>
-      </c>
-      <c r="D101">
-        <v>0.308</v>
-      </c>
-      <c r="E101">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F101">
-        <v>0.308</v>
-      </c>
-      <c r="G101">
-        <v>0.37</v>
-      </c>
-      <c r="H101">
-        <v>0.308</v>
-      </c>
-      <c r="I101">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J101">
-        <v>0.314</v>
-      </c>
-      <c r="K101">
-        <v>0.37</v>
-      </c>
-      <c r="L101">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="M101">
-        <v>0.37</v>
-      </c>
-      <c r="N101">
-        <v>0.308</v>
-      </c>
-      <c r="O101">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="P101">
-        <v>0.317</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R101"/>
   <sheetViews>
@@ -52434,58 +47245,58 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
